--- a/biology/Médecine/Créatine_kinase/Créatine_kinase.xlsx
+++ b/biology/Médecine/Créatine_kinase/Créatine_kinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atine_kinase</t>
+          <t>Créatine_kinase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La créatine kinase (CK), anciennement appelée phosphocréatine kinase ou créatine phosphokinase (CPK) est une enzyme (EC 2.7.3.2) exprimée par divers types de tissus. 
 Dans la mitochondrie, où la concentration d'ATP est toujours très importante, elle a pour fonction de catalyser la conversion de la créatine en phosphocréatine, impliquant la conversion de l'adénosine triphosphate (ATP) en adénosine diphosphate (ADP). Bien que l'équilibre de la réaction soit largement en faveur de la réaction inverse, cette réaction a lieu car la molécule d'ADP formée (par consommation d'une molécule d'ATP) pour créer une molécule de phosphocréatine est immédiatement transformée en ATP par la mitochondrie, ce qui déplace l'équilibre de la réaction.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atine_kinase</t>
+          <t>Créatine_kinase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe plusieurs isoenzymes (variantes) de la CK.
 Principalement trois fractions sont connues :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atine_kinase</t>
+          <t>Créatine_kinase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La CK est libérée dans le sang lors de lésions tissulaires avec lyse cellulaire. Le dosage des isoenzymes circulant dans le sang permet de distinguer l'origine de la destruction cellulaire.
-La CK-MB (ou CPK-MB) est libérée en cas d'infarctus du myocarde mais son usage diagnostique tend à être supplanté par la mesure de la troponine sanguine qui s'élève de manière plus précoce, avec une sensibilité meilleure. Le taux de CPK-MB s'élève à partir de la troisième ou quatrième heure après le début de l'infarctus et se normalise en deux à trois jours[1].
+La CK-MB (ou CPK-MB) est libérée en cas d'infarctus du myocarde mais son usage diagnostique tend à être supplanté par la mesure de la troponine sanguine qui s'élève de manière plus précoce, avec une sensibilité meilleure. Le taux de CPK-MB s'élève à partir de la troisième ou quatrième heure après le début de l'infarctus et se normalise en deux à trois jours.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atine_kinase</t>
+          <t>Créatine_kinase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Valeur normale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Valeur normale de la concentration en CPK plasmatique : 15 - 130 UI/L.
 Il existe de nombreuses fausses augmentations notamment liées à une myolyse :
-effort musculaire (ainsi un marathonien peut augmenter le taux de CPK à plus de 40 fois la normale en fin de course[2]) ;
+effort musculaire (ainsi un marathonien peut augmenter le taux de CPK à plus de 40 fois la normale en fin de course) ;
 fièvre.</t>
         </is>
       </c>
